--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -1,21 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsrizzoli-my.sharepoint.com/personal/bruno_luciano_itsrizzoli_it/Documents/Documents/progetto_finale_R/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_0C78FDCE8F79A8D366075C52F35CBA75FC11CF9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8187F396-19EB-46C8-998D-1E0A5175539D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>n_recensioni</t>
+  </si>
+  <si>
+    <t>n_recensioni_qualita</t>
+  </si>
+  <si>
+    <t>n_recensioni_prezzo</t>
+  </si>
+  <si>
+    <t>n_recensioni_location</t>
+  </si>
+  <si>
+    <t>n_recensioni_personale</t>
+  </si>
+  <si>
+    <t>rating_medio</t>
+  </si>
+  <si>
+    <t>sentiment_medio</t>
+  </si>
+  <si>
+    <t>rating_medio_qualita</t>
+  </si>
+  <si>
+    <t>rating_medio_prezzo</t>
+  </si>
+  <si>
+    <t>rating_medio_location</t>
+  </si>
+  <si>
+    <t>rating_medio_personale</t>
+  </si>
+  <si>
+    <t>sentiment_medio_qualita</t>
+  </si>
+  <si>
+    <t>sentiment_medio_prezzo</t>
+  </si>
+  <si>
+    <t>sentiment_medio_location</t>
+  </si>
+  <si>
+    <t>sentiment_medio_personale</t>
+  </si>
+  <si>
+    <t>Ange Boulangerie</t>
+  </si>
+  <si>
+    <t>Brioche Doree</t>
+  </si>
+  <si>
+    <t>La mie Caline</t>
+  </si>
+  <si>
+    <t>la croissanterie</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Country avg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +118,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,28 +148,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Cella da controllare" xfId="1" builtinId="23"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{01D18FFF-159B-40B9-85D6-C4B67ECF8A7A}" name="Tabella7" displayName="Tabella7" ref="A1:P6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:P6" xr:uid="{01D18FFF-159B-40B9-85D6-C4B67ECF8A7A}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{B138C840-F5CC-404E-ACEF-2F6C9A5A56F0}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{13C7C442-E972-4BEF-8400-7E95930C0A08}" name="n_recensioni"/>
+    <tableColumn id="3" xr3:uid="{E6B77F7B-C54E-4D5D-9857-A940683FCF52}" name="n_recensioni_qualita"/>
+    <tableColumn id="4" xr3:uid="{810BCF91-8378-4077-90A2-D29754577E20}" name="n_recensioni_prezzo"/>
+    <tableColumn id="5" xr3:uid="{9C27D8B9-314D-4F43-9144-588BEA4665B3}" name="n_recensioni_location"/>
+    <tableColumn id="6" xr3:uid="{4D307B76-0EBD-412C-8E1C-9324888ED9E1}" name="n_recensioni_personale"/>
+    <tableColumn id="7" xr3:uid="{D306188C-C97C-4EDB-B6A6-7923DC777DB1}" name="rating_medio"/>
+    <tableColumn id="8" xr3:uid="{A3E4E254-E6C2-41A7-86B5-0D259C8CA1D7}" name="sentiment_medio"/>
+    <tableColumn id="9" xr3:uid="{E6A082DB-3F06-4F33-A386-444BFB0FAF3A}" name="rating_medio_qualita"/>
+    <tableColumn id="10" xr3:uid="{EEBEC338-C7C5-4435-93FB-0F7A8CCC4FBD}" name="rating_medio_prezzo"/>
+    <tableColumn id="11" xr3:uid="{C7475602-D016-43F6-A349-48868135BE7A}" name="rating_medio_location"/>
+    <tableColumn id="12" xr3:uid="{B163340E-A15B-427B-9687-6E0553795B9A}" name="rating_medio_personale"/>
+    <tableColumn id="13" xr3:uid="{8F665086-A445-46E6-A4CB-051A6FDC3867}" name="sentiment_medio_qualita"/>
+    <tableColumn id="14" xr3:uid="{24A30E15-CA12-470B-90A5-3818DEAFFB8F}" name="sentiment_medio_prezzo"/>
+    <tableColumn id="15" xr3:uid="{9FE4D150-E6C4-47FB-9428-A098033348D9}" name="sentiment_medio_location"/>
+    <tableColumn id="16" xr3:uid="{C95CA63A-C3B2-49F3-A8BF-ABFEFA0CE737}" name="sentiment_medio_personale"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +292,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,304 +537,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16" width="31.77734375" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Players</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n_recensioni</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n_recensioni_qualita</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n_recensioni_prezzo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n_recensioni_location</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n_recensioni_personale</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rating_medio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_medio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>rating_medio_qualita</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>rating_medio_prezzo</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rating_medio_location</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rating_medio_personale</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_medio_qualita</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_medio_prezzo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_medio_location</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_medio_personale</t>
-        </is>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <f xml:space="preserve"> AVERAGE(B3:B6)</f>
+        <v>304.5</v>
+      </c>
+      <c r="C2" s="3">
+        <f xml:space="preserve"> AVERAGE(C3:C6)</f>
+        <v>137.75</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="C2:F2" si="0" xml:space="preserve"> AVERAGE(D3:D6)</f>
+        <v>49.25</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
+        <v>22.25</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>65.75</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2" si="1" xml:space="preserve"> AVERAGE(G3:G6)</f>
+        <v>3.4370872558632235</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2" si="2" xml:space="preserve"> AVERAGE(H3:H6)</f>
+        <v>72.320600814102988</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2" si="3" xml:space="preserve"> AVERAGE(I3:I6)</f>
+        <v>3.7127213031057922</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2" si="4" xml:space="preserve"> AVERAGE(J3:J6)</f>
+        <v>3.1120271645605384</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2" si="5" xml:space="preserve"> AVERAGE(K3:K6)</f>
+        <v>2.6920677361853835</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2" si="6" xml:space="preserve"> AVERAGE(L3:L6)</f>
+        <v>3.6753033214163735</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2" si="7" xml:space="preserve"> AVERAGE(M3:M6)</f>
+        <v>78.208116549658115</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2" si="8" xml:space="preserve"> AVERAGE(N3:N6)</f>
+        <v>64.65795480813685</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" ref="O2" si="9" xml:space="preserve"> AVERAGE(O3:O6)</f>
+        <v>49.788324420677363</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2" si="10" xml:space="preserve"> AVERAGE(P3:P6)</f>
+        <v>76.991358437994236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>467</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>263</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>103</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>97</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>3.901498929336189</v>
       </c>
-      <c r="H2">
-        <v>84.90364025695932</v>
-      </c>
-      <c r="I2">
-        <v>4.102661596958175</v>
-      </c>
-      <c r="J2">
-        <v>4.242718446601942</v>
-      </c>
-      <c r="K2">
-        <v>3.212121212121212</v>
-      </c>
-      <c r="L2">
+      <c r="H3">
+        <v>84.903640256959321</v>
+      </c>
+      <c r="I3">
+        <v>4.1026615969581748</v>
+      </c>
+      <c r="J3">
+        <v>4.2427184466019421</v>
+      </c>
+      <c r="K3">
+        <v>3.2121212121212119</v>
+      </c>
+      <c r="L3">
         <v>3.938144329896907</v>
       </c>
-      <c r="M2">
-        <v>90.87452471482889</v>
-      </c>
-      <c r="N2">
-        <v>92.23300970873787</v>
-      </c>
-      <c r="O2">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="P2">
-        <v>83.50515463917526</v>
+      <c r="M3">
+        <v>90.874524714828894</v>
+      </c>
+      <c r="N3">
+        <v>92.233009708737868</v>
+      </c>
+      <c r="O3">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P3">
+        <v>83.505154639175259</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>203</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>58</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>41</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>3.103448275862069</v>
       </c>
-      <c r="H3">
-        <v>67.48768472906404</v>
-      </c>
-      <c r="I3">
-        <v>3.310344827586207</v>
-      </c>
-      <c r="J3">
+      <c r="H4">
+        <v>67.487684729064043</v>
+      </c>
+      <c r="I4">
+        <v>3.3103448275862069</v>
+      </c>
+      <c r="J4">
         <v>2.59375</v>
       </c>
-      <c r="K3">
-        <v>1.909090909090909</v>
-      </c>
-      <c r="L3">
-        <v>3.317073170731707</v>
-      </c>
-      <c r="M3">
-        <v>68.96551724137932</v>
-      </c>
-      <c r="N3">
+      <c r="K4">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="L4">
+        <v>3.3170731707317072</v>
+      </c>
+      <c r="M4">
+        <v>68.965517241379317</v>
+      </c>
+      <c r="N4">
         <v>46.875</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>29.54545454545455</v>
       </c>
-      <c r="P3">
-        <v>64.63414634146342</v>
+      <c r="P4">
+        <v>64.634146341463421</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
         <v>261</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>27</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>52</v>
-      </c>
-      <c r="G4">
-        <v>3.436781609195402</v>
-      </c>
-      <c r="H4">
-        <v>72.60536398467433</v>
-      </c>
-      <c r="I4">
-        <v>3.683333333333333</v>
-      </c>
-      <c r="J4">
-        <v>2.925925925925926</v>
-      </c>
-      <c r="K4">
-        <v>3.411764705882353</v>
-      </c>
-      <c r="L4">
-        <v>3.788461538461538</v>
-      </c>
-      <c r="M4">
-        <v>77.08333333333333</v>
-      </c>
-      <c r="N4">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="O4">
-        <v>70.58823529411765</v>
-      </c>
-      <c r="P4">
-        <v>86.53846153846153</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>287</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
       </c>
       <c r="E5">
         <v>17</v>
       </c>
       <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>3.436781609195402</v>
+      </c>
+      <c r="H5">
+        <v>72.605363984674327</v>
+      </c>
+      <c r="I5">
+        <v>3.6833333333333331</v>
+      </c>
+      <c r="J5">
+        <v>2.925925925925926</v>
+      </c>
+      <c r="K5">
+        <v>3.4117647058823528</v>
+      </c>
+      <c r="L5">
+        <v>3.7884615384615379</v>
+      </c>
+      <c r="M5">
+        <v>77.083333333333329</v>
+      </c>
+      <c r="N5">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="O5">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="P5">
+        <v>86.538461538461533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>287</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>73</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>3.306620209059234</v>
       </c>
-      <c r="H5">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="I5">
+      <c r="H6">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="I6">
         <v>3.754545454545454</v>
       </c>
-      <c r="J5">
-        <v>2.685714285714285</v>
-      </c>
-      <c r="K5">
-        <v>2.235294117647059</v>
-      </c>
-      <c r="L5">
+      <c r="J6">
+        <v>2.6857142857142851</v>
+      </c>
+      <c r="K6">
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="L6">
         <v>3.657534246575342</v>
       </c>
-      <c r="M5">
-        <v>75.90909090909091</v>
-      </c>
-      <c r="N5">
-        <v>52.85714285714285</v>
-      </c>
-      <c r="O5">
-        <v>32.35294117647059</v>
-      </c>
-      <c r="P5">
-        <v>73.28767123287672</v>
+      <c r="M6">
+        <v>75.909090909090907</v>
+      </c>
+      <c r="N6">
+        <v>52.857142857142847</v>
+      </c>
+      <c r="O6">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="P6">
+        <v>73.287671232876718</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="4"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="40"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="64.650000000000006"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="78.2"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="49.787999999999997"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="76.989999999999995"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3.7"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3.11"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="2.69"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3.67"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>